--- a/assets/dataFiles/Three Days Tour Packages.xlsx
+++ b/assets/dataFiles/Three Days Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48346EB3-6DC2-47D1-9FB7-A6789FC2E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C500B2-F516-463C-B537-BC3ECE9E30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{2C5E68E3-3050-4D67-8013-928AD3991060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2C5E68E3-3050-4D67-8013-928AD3991060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -121,16 +121,9 @@
     <t>20+1</t>
   </si>
   <si>
-    <t>TOLL, PARKING EXRA</t>
-  </si>
-  <si>
     <t>OOTY- MYSORE- OOTY</t>
   </si>
   <si>
-    <t>TOLL,
-PARKING EXRA</t>
-  </si>
-  <si>
     <t>BANGALORE - OOTY- BANGALORE</t>
   </si>
   <si>
@@ -140,15 +133,7 @@
     <t>OOTY- WAYANADU- OOTY</t>
   </si>
   <si>
-    <t>TOLL, 
-PARKING EXRA</t>
-  </si>
-  <si>
     <t>MYSORE - OOTY - MYSORE</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden.&lt;br&gt;Day 2&lt;br&gt;Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train.&lt;br&gt;Day 3&lt;br&gt;"Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) and 
-Mudumalai wild life santuary."</t>
   </si>
   <si>
     <t>Day 1&lt;br&gt;
@@ -178,6 +163,30 @@
     <t>Day 1&lt;br&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
 Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;
 Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop.</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) and 
+Mudumalai wild life santuary&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>TOLL, PARKING EXTRA</t>
+  </si>
+  <si>
+    <t>TOLL,
+PARKING EXTRA</t>
+  </si>
+  <si>
+    <t>TOLL, 
+PARKING EXTRA</t>
   </si>
 </sst>
 </file>
@@ -785,27 +794,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +827,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +852,7 @@
     </row>
     <row r="2" spans="1:14" ht="201.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -862,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1137,8 +1146,327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7ADCB-77A7-4C31-862B-AE2CDAA149D5}">
   <dimension ref="A1:N15"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7800</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8300</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8500</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8900</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9200</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9500</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14000</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED2F86B-B993-47EC-BD62-A727423CF7C2}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1491,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1182,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1199,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -1220,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="6">
-        <v>7800</v>
+        <v>12000</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -1241,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -1262,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="6">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -1283,7 +1611,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>8300</v>
+        <v>13100</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -1304,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>8500</v>
+        <v>13400</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -1325,7 +1653,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>8900</v>
+        <v>14000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -1346,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="6">
-        <v>9000</v>
+        <v>14300</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -1367,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6">
-        <v>9200</v>
+        <v>14500</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
@@ -1388,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="6">
-        <v>9500</v>
+        <v>14800</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
@@ -1409,7 +1737,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="6">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
@@ -1430,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="10">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>8</v>
@@ -1452,12 +1780,332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED2F86B-B993-47EC-BD62-A727423CF7C2}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4608514-253F-484B-B0B6-C9672368953B}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8500</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8700</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9300</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9600</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9800</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>11500</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <v>12000</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12500</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13000</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>17000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10">
+        <v>18000</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28195AB-F95D-4574-A7FE-7E09C31CFDC7}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +2130,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1491,22 +2139,22 @@
       <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1518,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -1539,7 +2187,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="6">
-        <v>12000</v>
+        <v>6700</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -1560,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -1581,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="6">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -1602,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>13100</v>
+        <v>7800</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -1623,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>13400</v>
+        <v>8000</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -1644,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>14000</v>
+        <v>8200</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -1665,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="6">
-        <v>14300</v>
+        <v>8500</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -1686,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6">
-        <v>14500</v>
+        <v>8750</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
@@ -1699,68 +2347,26 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6">
-        <v>14800</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="10">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
-        <v>16000</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10">
-        <v>19500</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1771,12 +2377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4608514-253F-484B-B0B6-C9672368953B}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A854D050-F0E9-4A81-A37C-B9186CFC821D}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +2407,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1820,604 +2426,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>8500</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8700</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9000</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>9300</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9600</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <v>9800</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <v>11500</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6">
-        <v>12000</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6">
-        <v>12500</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>13000</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
-        <v>17000</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10">
-        <v>18000</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28195AB-F95D-4574-A7FE-7E09C31CFDC7}">
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6500</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6700</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>7500</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7800</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8000</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8200</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6">
-        <v>8500</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6">
-        <v>8750</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10">
-        <v>9000</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A854D050-F0E9-4A81-A37C-B9186CFC821D}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>

--- a/assets/dataFiles/Three Days Tour Packages.xlsx
+++ b/assets/dataFiles/Three Days Tour Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C500B2-F516-463C-B537-BC3ECE9E30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81EE989-FBF2-4E8C-9E5C-7E2901DAF1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2C5E68E3-3050-4D67-8013-928AD3991060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{2C5E68E3-3050-4D67-8013-928AD3991060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -137,24 +137,6 @@
   </si>
   <si>
     <t>Day 1&lt;br&gt;
-Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boat house, Thread Garden&lt;br&gt;Day 2&lt;br&gt;Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train.&lt;br&gt;Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) and Mudumalai wild life santuary.</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;
-Bangalore pick up and local Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
-Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Ketty valleyview (view), 
-MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train.&lt;br&gt;
-Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop.</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;
-Coimbatore pick up and Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
-Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, 
-Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;
-Day 3&lt;br&gt;Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palac and proceeding to Coimbatore / Drop to Mysore.</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;
 Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;	
 Day 2&lt;br&gt;Ananthanatha Swami temple, Muthanga Wildlife Sanctuary, Banasura dam, Begur Wildlife Sanctuary, Chembra Peak, Edakkal Caves, Meenmutty Falls, Kanthapara Falls, Soochipara Falls.&lt;br&gt;
 Day 3&lt;br&gt;Back to Ooty</t>
@@ -163,6 +145,30 @@
     <t>Day 1&lt;br&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
 Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;
 Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop.</t>
+  </si>
+  <si>
+    <t>TOLL, PARKING EXTRA</t>
+  </si>
+  <si>
+    <t>TOLL,
+PARKING EXTRA</t>
+  </si>
+  <si>
+    <t>TOLL, 
+PARKING EXTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) and 
+Mudumalai wild life santuary&lt;/p&gt;&lt;/div&gt;
+</t>
   </si>
   <si>
     <t>&lt;div&gt;
@@ -174,19 +180,30 @@
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
 &lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view) and 
-Mudumalai wild life santuary&lt;/p&gt;&lt;/div&gt;
-&lt;div&gt;</t>
-  </si>
-  <si>
-    <t>TOLL, PARKING EXTRA</t>
-  </si>
-  <si>
-    <t>TOLL,
-PARKING EXTRA</t>
-  </si>
-  <si>
-    <t>TOLL, 
-PARKING EXTRA</t>
+Mudumalai wild life santuary&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Bangalore pick up and local Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Coimbatore pick up and Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, 
+Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palac and proceeding to Coimbatore / Drop to Mysore&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -827,7 +844,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1146,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7ADCB-77A7-4C31-862B-AE2CDAA149D5}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1189,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1191,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1466,7 +1483,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1508,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1510,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1784,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4608514-253F-484B-B0B6-C9672368953B}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1827,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1829,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -2130,7 +2147,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2149,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -2407,7 +2424,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2426,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>

--- a/assets/dataFiles/Three Days Tour Packages.xlsx
+++ b/assets/dataFiles/Three Days Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81EE989-FBF2-4E8C-9E5C-7E2901DAF1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D5C2D-9C6C-4CA3-BCBB-DF2419C9F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{2C5E68E3-3050-4D67-8013-928AD3991060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{2C5E68E3-3050-4D67-8013-928AD3991060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -136,17 +136,6 @@
     <t>MYSORE - OOTY - MYSORE</t>
   </si>
   <si>
-    <t>Day 1&lt;br&gt;
-Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;	
-Day 2&lt;br&gt;Ananthanatha Swami temple, Muthanga Wildlife Sanctuary, Banasura dam, Begur Wildlife Sanctuary, Chembra Peak, Edakkal Caves, Meenmutty Falls, Kanthapara Falls, Soochipara Falls.&lt;br&gt;
-Day 3&lt;br&gt;Back to Ooty</t>
-  </si>
-  <si>
-    <t>Day 1&lt;br&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping.&lt;br&gt;	
-Day 2&lt;br&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;br&gt;
-Day 3&lt;br&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop.</t>
-  </si>
-  <si>
     <t>TOLL, PARKING EXTRA</t>
   </si>
   <si>
@@ -183,27 +172,52 @@
 Mudumalai wild life santuary&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
+    <t>&lt;div&gt;&lt;h5&gt;Day 1&lt;/h5&gt;&lt;p&gt;Bangalore pick up and local Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;&lt;h5&gt;Day 2&lt;/h5&gt;&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train&lt;/p&gt;&lt;/div&gt;
+&lt;div&gt;&lt;h5&gt;Day 3&lt;/h5&gt;&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>&lt;div&gt;
 &lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;Bangalore pick up and local Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 2&lt;/h5&gt;
-&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Ketty valleyview (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train&lt;/p&gt;&lt;/div&gt;
-&lt;div&gt;
-&lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop&lt;/p&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-&lt;h5&gt;Day 1&lt;/h5&gt;
-&lt;p&gt;Coimbatore pick up and Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;&lt;/div&gt;
+&lt;p&gt;Coimbatore pick up  and Boating,  Thread Garden,  Botanical Garden  and  shopping &lt;/p&gt;
+&lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 2&lt;/h5&gt;
 &lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, 
-Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;&lt;/div&gt;
+Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;
+&lt;/div&gt;
 &lt;div&gt;
 &lt;h5&gt;Day 3&lt;/h5&gt;
-&lt;p&gt;Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palac and proceeding to Coimbatore / Drop to Mysore&lt;/p&gt;&lt;/div&gt;</t>
+&lt;p&gt;Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palac and proceeding to Coimbatore / Drop to Mysore&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Ananthanatha Swami temple, Muthanga Wildlife Sanctuary, Banasura dam, Begur Wildlife Sanctuary, Chembra Peak, Edakkal Caves, Meenmutty Falls, Kanthapara Falls, Soochipara Falls&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Back to Ooty&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;Mysore pick up and Boating , Thread Garden, Botanical Garden and shopping&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view).&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view), Mudumalai wild life santuary and proceeding to Mysore / Bangalore Drop&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -869,7 +883,7 @@
     </row>
     <row r="2" spans="1:14" ht="201.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -888,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1164,7 +1178,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1203,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1208,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1483,7 +1497,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1522,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1527,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -1801,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4608514-253F-484B-B0B6-C9672368953B}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1841,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1846,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
@@ -2122,7 +2136,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,7 +2161,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2166,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -2398,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A854D050-F0E9-4A81-A37C-B9186CFC821D}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2438,7 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2443,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>5</v>
